--- a/src/experiment/results/wilcoxon/cleveland/outlier/PinFSSVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/cleveland/outlier/PinFSSVM_auc_folds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>Best_B</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best_cpu_threads</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,13 +503,16 @@
         <v>0.7393162393162394</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,13 +538,16 @@
         <v>0.9054621848739496</v>
       </c>
       <c r="F3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -562,13 +573,16 @@
         <v>0.7434210526315791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>0.1</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -594,13 +608,16 @@
         <v>0.8229665071770336</v>
       </c>
       <c r="F5" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,16 @@
         <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
       </c>
       <c r="H6" t="n">
         <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +678,16 @@
         <v>0.875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
       </c>
       <c r="H7" t="n">
         <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -690,13 +713,16 @@
         <v>0.763888888888889</v>
       </c>
       <c r="F8" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -722,13 +748,16 @@
         <v>0.8144796380090499</v>
       </c>
       <c r="F9" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
       </c>
       <c r="H9" t="n">
         <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -754,13 +783,16 @@
         <v>0.738095238095238</v>
       </c>
       <c r="F10" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
         <v>0.1</v>
       </c>
       <c r="H10" t="n">
         <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -786,13 +818,16 @@
         <v>0.8038277511961723</v>
       </c>
       <c r="F11" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
         <v>0.1</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
